--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A164162E-4641-4656-A9BB-EE46F68EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96F4929-0DD3-477E-9353-3D1F8D9738CB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A164162E-4641-4656-A9BB-EE46F68EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF3805E-5C44-4414-8B84-F627B97BC8ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Sheet1 (3)" sheetId="4" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="396">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -3717,37 +3718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録で値を入力したあと、画面の更新をした際に入力した値が保持されているか</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント登録確認画面から「前に戻る」を押さず、アカウント登録画面に遷移しない</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -3905,19 +3875,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力した値が保持される</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント登録確認画面でregist.phpで検索する</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -4209,68 +4166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント検索で検索した条件が、画面の再度読み込みを行っても入力した値が保持されているか</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再度読み込みを行っても入力した値が保持されている</t>
-    <rPh sb="0" eb="2">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.アカウント検索欄で項目に値を入力する</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
@@ -5156,6 +5051,852 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン情報を入力した状態で、リロードを押すと入力した値がリセットされる</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログイン情報を入力する</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.リロードする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セットした値がリセットされる</t>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、リロードを行ってもログイン後の「一般」権限が変わらない</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後、リロードを行ってもログイン後の「管理者」権限が変わらない</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログイン後、TOPページでリロードを行う</t>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一般」権限が変わらない</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「管理者」権限が変わらない</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了しました</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録でき</t>
+    <rPh sb="5" eb="7">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ませんでした」が赤字で表示</t>
+    <rPh sb="8" eb="10">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からアカウント登録画面に戻った後、リロードした際、保持されていた値はリセットされる</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面で、リロードした際エラーが起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーの表示が起こらない</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セットされていた値がリセットされる</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントは登録されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面でアカウント情報を入力し、「確認する」を</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押す</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録確認画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録確認画面で「登録」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント登録完了画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録確認画面で「前に戻る」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント登録画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録で値を入力したあと、画面の更新をした際に入力した値がリセットされる</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値がリセットされる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント検索で検索した条件が、画面の再度読み込みでリセットされない</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再度読み込みでリセットされない</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新画面でリロードした際、セットされている値はリセットされない</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セットされている値はリセットされない</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,アカウント更新画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面でリロードした際、エラー等起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが起こらない</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,アカウント更新画面の「確認する」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新確認画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面で、リロードした際エラーが起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面でリロードした際、エラーが起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー表示等起こらず、更新ができている</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新確認画面の「更新する」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント更新完了画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面からアカウント更新画面に戻ってリロードした際、セットされている値はリセットされない</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値がリセットされ、空欄ではなくコードが</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セットされている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント更新確認画面の「前へ戻る」を押す</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント更新画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除画面でリロードした際、エラーが起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント削除画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面でリロードした際、エラーが起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント削除画面の「確認する」をおす</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント削除確認画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面でリロードした際、エラーが起こらず、削除ができている</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント削除確認画面で「削除する」をおす</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除完了画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面からアカウント削除画面に戻りリロードした際、エラーが起こらない</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント削除確認画面で「前に戻る」をおす</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント削除画面でリロードする</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードがハッシュ化されセットされている</t>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5366,13 +6107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -5387,20 +6122,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="239">
+  <dxfs count="247">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5621,11 +6362,181 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -5641,7 +6552,1003 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5672,654 +7579,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -7545,6 +8804,26 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7553,6 +8832,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7561,6 +8862,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7569,6 +8892,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7577,6 +8922,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7585,6 +8952,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7593,6 +8982,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7601,6 +9012,28 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7609,6 +9042,27 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7617,184 +9071,14 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -7816,6 +9100,215 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -7874,9 +9367,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7885,6 +9375,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -7893,199 +9386,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -8094,6 +9394,199 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -8148,550 +9641,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -8918,32 +9867,32 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I34" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="238"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="237"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="236"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="235"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="234"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="233"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="232"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="231"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="230"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="246"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="245"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="244"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="243"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="242"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="241"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="240"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="239"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="238"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D550E851-54B2-4ED4-9197-A3D138643C67}" name="テーブル3913" displayName="テーブル3913" ref="A12:I17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D550E851-54B2-4ED4-9197-A3D138643C67}" name="テーブル3913" displayName="テーブル3913" ref="A12:I17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="149">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FB0478B8-1D1F-4E35-8EE7-2A629F1C92E5}" name="項目番号" headerRowDxfId="151" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{CB4DA40D-8C90-4F6B-AB95-23A5D303EF01}" name="大項目" headerRowDxfId="150" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{42E5E060-FF5C-4ADD-ABDE-BA7386111922}" name="列3" headerRowDxfId="149" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7BA5E83E-FB34-4406-8289-890E8D3A3A0A}" name="確認内容" headerRowDxfId="148" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{778CF268-4739-4BC7-801E-A300BD8CB2C2}" name="操作手順" headerRowDxfId="147" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{709DA5C7-452B-4845-AB24-6C0F6C8684F1}" name="期待値" headerRowDxfId="146" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{CA244BBF-7843-49F5-B12D-CA5DD69E3869}" name="実施日" headerRowDxfId="145" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{B5A8B03D-1563-4160-812F-C2FC92C4B673}" name="実施結果" headerRowDxfId="144" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{9E500E9A-EEF9-4039-AD34-40763B89FA07}" name="備考" headerRowDxfId="143" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{FB0478B8-1D1F-4E35-8EE7-2A629F1C92E5}" name="項目番号" headerRowDxfId="148" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{CB4DA40D-8C90-4F6B-AB95-23A5D303EF01}" name="大項目" headerRowDxfId="146" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{42E5E060-FF5C-4ADD-ABDE-BA7386111922}" name="列3" headerRowDxfId="144" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{7BA5E83E-FB34-4406-8289-890E8D3A3A0A}" name="確認内容" headerRowDxfId="142" dataDxfId="141"/>
+    <tableColumn id="5" xr3:uid="{778CF268-4739-4BC7-801E-A300BD8CB2C2}" name="操作手順" headerRowDxfId="140" dataDxfId="139"/>
+    <tableColumn id="6" xr3:uid="{709DA5C7-452B-4845-AB24-6C0F6C8684F1}" name="期待値" headerRowDxfId="138" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{CA244BBF-7843-49F5-B12D-CA5DD69E3869}" name="実施日" headerRowDxfId="136" dataDxfId="135"/>
+    <tableColumn id="8" xr3:uid="{B5A8B03D-1563-4160-812F-C2FC92C4B673}" name="実施結果" headerRowDxfId="134" dataDxfId="133"/>
+    <tableColumn id="9" xr3:uid="{9E500E9A-EEF9-4039-AD34-40763B89FA07}" name="備考" headerRowDxfId="132" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8952,32 +9901,32 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{92EE8A66-26C5-4510-A2C8-79987B9EA570}" name="テーブル214" displayName="テーブル214" ref="A7:I46" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9DCC337B-1722-43E3-A699-574A84A90424}" name="項目番号" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{96BEEB0E-68A8-40BD-A9A8-77EFC9EC6E0A}" name="大項目" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{B310C236-5386-4D30-BBCC-088BD10C568A}" name="列3" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{6566F237-6299-47AE-9D5A-03233EB07695}" name="確認内容" dataDxfId="139"/>
-    <tableColumn id="5" xr3:uid="{58EB58B2-F812-4738-8D2F-16B65681A78F}" name="操作手順" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{BEC8CC87-050F-40A7-B877-95A5ABFB2CCF}" name="期待値" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{8933C692-AC07-4752-9FD0-D9F6A2C525BE}" name="実施日" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{52627A74-5266-4214-8294-FAECD8823D89}" name="実施結果" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{F28B0484-AF16-4CED-B594-B0CCA0126E20}" name="備考" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{9DCC337B-1722-43E3-A699-574A84A90424}" name="項目番号" dataDxfId="130"/>
+    <tableColumn id="2" xr3:uid="{96BEEB0E-68A8-40BD-A9A8-77EFC9EC6E0A}" name="大項目" dataDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{B310C236-5386-4D30-BBCC-088BD10C568A}" name="列3" dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{6566F237-6299-47AE-9D5A-03233EB07695}" name="確認内容" dataDxfId="127"/>
+    <tableColumn id="5" xr3:uid="{58EB58B2-F812-4738-8D2F-16B65681A78F}" name="操作手順" dataDxfId="126"/>
+    <tableColumn id="6" xr3:uid="{BEC8CC87-050F-40A7-B877-95A5ABFB2CCF}" name="期待値" dataDxfId="125"/>
+    <tableColumn id="7" xr3:uid="{8933C692-AC07-4752-9FD0-D9F6A2C525BE}" name="実施日" dataDxfId="124"/>
+    <tableColumn id="8" xr3:uid="{52627A74-5266-4214-8294-FAECD8823D89}" name="実施結果" dataDxfId="123"/>
+    <tableColumn id="9" xr3:uid="{F28B0484-AF16-4CED-B594-B0CCA0126E20}" name="備考" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{117920D0-B5E8-4857-AE14-795F1DE0793A}" name="テーブル315" displayName="テーブル315" ref="A47:I51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{117920D0-B5E8-4857-AE14-795F1DE0793A}" name="テーブル315" displayName="テーブル315" ref="A47:I51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="121">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AC234E38-6B35-451E-87F0-F07736F5A627}" name="項目番号" headerRowDxfId="132" dataDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{FE9A97C2-5E84-47D5-9C46-B975EA9D30C4}" name="大項目" headerRowDxfId="130"/>
-    <tableColumn id="3" xr3:uid="{A5D50864-42F1-4E0D-8EA1-742D5C7463D8}" name="列3" headerRowDxfId="129"/>
-    <tableColumn id="4" xr3:uid="{B951040F-4440-4986-85AE-207BB1E7E023}" name="確認内容" headerRowDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{4933360D-212F-4F4C-8CFC-0674F0DA0CA5}" name="操作手順" headerRowDxfId="127"/>
-    <tableColumn id="6" xr3:uid="{46C112A4-5C55-4974-BF9B-4826A8D1B120}" name="期待値" headerRowDxfId="126"/>
-    <tableColumn id="7" xr3:uid="{75D33E42-0F38-4D13-8E85-E9DB0D6A055C}" name="実施日" headerRowDxfId="125"/>
-    <tableColumn id="8" xr3:uid="{D40E49CC-D877-475A-B374-2FB511D22038}" name="実施結果" headerRowDxfId="124"/>
-    <tableColumn id="9" xr3:uid="{330CCD0D-7F5C-4B28-89B7-0A351E8A9EFC}" name="備考" headerRowDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{AC234E38-6B35-451E-87F0-F07736F5A627}" name="項目番号" headerRowDxfId="120" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{FE9A97C2-5E84-47D5-9C46-B975EA9D30C4}" name="大項目" headerRowDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{A5D50864-42F1-4E0D-8EA1-742D5C7463D8}" name="列3" headerRowDxfId="117"/>
+    <tableColumn id="4" xr3:uid="{B951040F-4440-4986-85AE-207BB1E7E023}" name="確認内容" headerRowDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{4933360D-212F-4F4C-8CFC-0674F0DA0CA5}" name="操作手順" headerRowDxfId="115"/>
+    <tableColumn id="6" xr3:uid="{46C112A4-5C55-4974-BF9B-4826A8D1B120}" name="期待値" headerRowDxfId="114"/>
+    <tableColumn id="7" xr3:uid="{75D33E42-0F38-4D13-8E85-E9DB0D6A055C}" name="実施日" headerRowDxfId="113"/>
+    <tableColumn id="8" xr3:uid="{D40E49CC-D877-475A-B374-2FB511D22038}" name="実施結果" headerRowDxfId="112"/>
+    <tableColumn id="9" xr3:uid="{330CCD0D-7F5C-4B28-89B7-0A351E8A9EFC}" name="備考" headerRowDxfId="111"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8986,32 +9935,32 @@
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4F311758-1114-41AC-B80C-CECFA819DA58}" name="テーブル21416" displayName="テーブル21416" ref="A7:I46" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F9D68D35-3C29-4958-A315-7B7DB1D5451E}" name="項目番号" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{33AAA2BD-7FC5-420B-9150-67AE959127FD}" name="大項目" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{9B3D24E1-BAF2-492A-A4D7-39EA75DAB7BA}" name="列3" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{4F60D2EB-9AF7-4D47-BA35-8992952B4880}" name="確認内容" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{89F65612-7B7C-437A-8DB9-8D7FAA10244A}" name="操作手順" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{084C3890-52E5-4CED-BFDC-AF03505DEEB8}" name="期待値" dataDxfId="117"/>
-    <tableColumn id="7" xr3:uid="{647469A3-FF2F-4947-887B-466D3A588AA2}" name="実施日" dataDxfId="116"/>
-    <tableColumn id="8" xr3:uid="{84379E9C-B30A-4CF6-87D7-BE4E68B2B804}" name="実施結果" dataDxfId="115"/>
-    <tableColumn id="9" xr3:uid="{C4DEF5AB-808C-4E4E-A76E-5B0D8262EA4D}" name="備考" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{F9D68D35-3C29-4958-A315-7B7DB1D5451E}" name="項目番号" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{33AAA2BD-7FC5-420B-9150-67AE959127FD}" name="大項目" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{9B3D24E1-BAF2-492A-A4D7-39EA75DAB7BA}" name="列3" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{4F60D2EB-9AF7-4D47-BA35-8992952B4880}" name="確認内容" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{89F65612-7B7C-437A-8DB9-8D7FAA10244A}" name="操作手順" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{084C3890-52E5-4CED-BFDC-AF03505DEEB8}" name="期待値" dataDxfId="105"/>
+    <tableColumn id="7" xr3:uid="{647469A3-FF2F-4947-887B-466D3A588AA2}" name="実施日" dataDxfId="104"/>
+    <tableColumn id="8" xr3:uid="{84379E9C-B30A-4CF6-87D7-BE4E68B2B804}" name="実施結果" dataDxfId="103"/>
+    <tableColumn id="9" xr3:uid="{C4DEF5AB-808C-4E4E-A76E-5B0D8262EA4D}" name="備考" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{795428E1-E854-4DC7-8C4F-2E05D122C470}" name="テーブル31517" displayName="テーブル31517" ref="A47:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{795428E1-E854-4DC7-8C4F-2E05D122C470}" name="テーブル31517" displayName="テーブル31517" ref="A47:I52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="101">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{894BB36D-A906-4CA2-80FC-0147043D99B8}" name="項目番号" headerRowDxfId="112" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{648393ED-B4FC-48DB-A18B-ACE7F1848F7A}" name="大項目" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{DECCA3A4-9A60-41B3-9D94-F381A925A5F8}" name="列3" headerRowDxfId="108" dataDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{76A087F1-E4F1-4E2C-ACAE-7BC7A280B708}" name="確認内容" headerRowDxfId="106" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{6BE08CD5-AE09-4DC7-B197-F1B9261B0B74}" name="操作手順" headerRowDxfId="104" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{859F9FFC-3ED9-4FAB-B456-BE0E756451FC}" name="期待値" headerRowDxfId="102" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{C6F7D79F-3C31-4AD7-B9A8-D34553111841}" name="実施日" headerRowDxfId="100" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{6B8639B3-B3E7-4DB1-8F69-285BE4A9796A}" name="実施結果" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="9" xr3:uid="{4FAFE7AC-D44C-4563-9A1D-3DF2374A0636}" name="備考" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{894BB36D-A906-4CA2-80FC-0147043D99B8}" name="項目番号" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{648393ED-B4FC-48DB-A18B-ACE7F1848F7A}" name="大項目" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{DECCA3A4-9A60-41B3-9D94-F381A925A5F8}" name="列3" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{76A087F1-E4F1-4E2C-ACAE-7BC7A280B708}" name="確認内容" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{6BE08CD5-AE09-4DC7-B197-F1B9261B0B74}" name="操作手順" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{859F9FFC-3ED9-4FAB-B456-BE0E756451FC}" name="期待値" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{C6F7D79F-3C31-4AD7-B9A8-D34553111841}" name="実施日" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{6B8639B3-B3E7-4DB1-8F69-285BE4A9796A}" name="実施結果" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{4FAFE7AC-D44C-4563-9A1D-3DF2374A0636}" name="備考" headerRowDxfId="84" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9020,32 +9969,32 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{26A45C71-42F6-442A-9322-A4EDFEEEFC8B}" name="テーブル2818" displayName="テーブル2818" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BA911E6F-D3D9-458C-9CA6-4B92B8F11D6E}" name="項目番号" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{F4FF0E24-D236-4EF3-B9A6-DE071048B667}" name="大項目" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{8245AC3B-D849-4BF3-92EB-EE5969BC03CB}" name="列3" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{2BDD7CAB-79F5-4C6C-9160-B9BEC441EEDD}" name="確認内容" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{734A262C-BE4E-4552-8D88-2E782EC5A521}" name="操作手順" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{BEC80A4A-7B56-41C8-B6F7-021DA2CCFA7D}" name="期待値" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{95D4B99B-387D-4BE6-9A27-E75A41CDEBC2}" name="実施日" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{E3370ABC-D356-442F-8936-69033A22A3C5}" name="実施結果" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{D1CD7051-94FF-41B4-B154-82392AD2B8E1}" name="備考" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{BA911E6F-D3D9-458C-9CA6-4B92B8F11D6E}" name="項目番号" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{F4FF0E24-D236-4EF3-B9A6-DE071048B667}" name="大項目" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{8245AC3B-D849-4BF3-92EB-EE5969BC03CB}" name="列3" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{2BDD7CAB-79F5-4C6C-9160-B9BEC441EEDD}" name="確認内容" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{734A262C-BE4E-4552-8D88-2E782EC5A521}" name="操作手順" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{BEC80A4A-7B56-41C8-B6F7-021DA2CCFA7D}" name="期待値" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{95D4B99B-387D-4BE6-9A27-E75A41CDEBC2}" name="実施日" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{E3370ABC-D356-442F-8936-69033A22A3C5}" name="実施結果" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{D1CD7051-94FF-41B4-B154-82392AD2B8E1}" name="備考" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D4684996-0139-4300-AD34-B21965269EA5}" name="テーブル3919" displayName="テーブル3919" ref="A12:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D4684996-0139-4300-AD34-B21965269EA5}" name="テーブル3919" displayName="テーブル3919" ref="A12:I20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="73">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="84" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{6039B8E9-7C8A-470A-9449-5A8E9C77A3D0}" name="項目番号" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{6910BF8A-3ABC-4B17-BD8D-980B5BB92955}" name="大項目" headerRowDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{EBC38437-BEC4-40BE-846A-512D6620C1EB}" name="列3" headerRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{46CC1FDC-E3C5-42EE-8749-8648CE182B5F}" name="確認内容" headerRowDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{36DD1286-2D83-4527-A354-5DB1FB557B31}" name="操作手順" headerRowDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{9F1A87AD-CEB5-467B-97B8-9F82AA11FE7E}" name="期待値" headerRowDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{9A8E2ABE-B02E-4509-AC7A-53D3611B45B3}" name="実施日" headerRowDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{03EA1545-0EF2-4365-9181-295A169BFAAF}" name="実施結果" headerRowDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{D32A447E-B901-4386-85D5-4F409A00B8C6}" name="備考" headerRowDxfId="63"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9054,32 +10003,32 @@
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D68400FE-558F-414E-AC3F-9641EDFD3A79}" name="テーブル21022" displayName="テーブル21022" ref="A7:I49" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{18798C31-FD6A-4A2E-9045-5E929F34EF2B}" name="項目番号" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{1997B3AC-F1FC-4E4D-B758-44F58C9110AB}" name="大項目" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{514BF36B-9B6E-4CE5-9E69-3DAE1D03E175}" name="列3" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{0EE019BC-4E27-4EDE-A931-6C65E50F754A}" name="確認内容" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{71ACD601-E5F5-425B-953C-91B389BBCF4C}" name="操作手順" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{09FFAA6B-E021-4544-8905-99E8624449D8}" name="期待値" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{7E1A6883-6BFD-4245-8DDF-BF12CE6E4F44}" name="実施日" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{0D51FD17-E0B6-4057-B45D-53E20FBFE2B3}" name="実施結果" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{7EF0B136-CA63-438D-A42D-897B6CCCFD1F}" name="備考" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{18798C31-FD6A-4A2E-9045-5E929F34EF2B}" name="項目番号" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{1997B3AC-F1FC-4E4D-B758-44F58C9110AB}" name="大項目" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{514BF36B-9B6E-4CE5-9E69-3DAE1D03E175}" name="列3" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{0EE019BC-4E27-4EDE-A931-6C65E50F754A}" name="確認内容" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{71ACD601-E5F5-425B-953C-91B389BBCF4C}" name="操作手順" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{09FFAA6B-E021-4544-8905-99E8624449D8}" name="期待値" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{7E1A6883-6BFD-4245-8DDF-BF12CE6E4F44}" name="実施日" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{0D51FD17-E0B6-4057-B45D-53E20FBFE2B3}" name="実施結果" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{7EF0B136-CA63-438D-A42D-897B6CCCFD1F}" name="備考" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E25D1CD9-AB27-4D1A-AEE9-7A7255336AD9}" name="テーブル31123" displayName="テーブル31123" ref="A50:I54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{E25D1CD9-AB27-4D1A-AEE9-7A7255336AD9}" name="テーブル31123" displayName="テーブル31123" ref="A50:I54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1DE8F91D-C101-45FF-BED3-33B230AA82A1}" name="項目番号" headerRowDxfId="64" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{4692C58C-BD36-4DDC-BCE6-D1C06CE897C5}" name="大項目" headerRowDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{1D4B0655-5093-47D6-8C92-C01DD3B2F164}" name="列3" headerRowDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{F3706C9A-7E7F-43D1-B9BB-19A9F656DB63}" name="確認内容" headerRowDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{C3993256-81B2-418E-935C-50AD042A05CB}" name="操作手順" headerRowDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{B77CA380-A406-4786-A21E-8B8652DD0F8F}" name="期待値" headerRowDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{18E5C3CA-313A-46EA-AA8D-0D425B9E1FE1}" name="実施日" headerRowDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{69BC504E-F659-4CAE-BDBD-FD3971DA1796}" name="実施結果" headerRowDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{FC7FFEA9-9C5E-4EBD-B5B3-A6683E1884C2}" name="備考" headerRowDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{1DE8F91D-C101-45FF-BED3-33B230AA82A1}" name="項目番号" headerRowDxfId="52" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{4692C58C-BD36-4DDC-BCE6-D1C06CE897C5}" name="大項目" headerRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{1D4B0655-5093-47D6-8C92-C01DD3B2F164}" name="列3" headerRowDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{F3706C9A-7E7F-43D1-B9BB-19A9F656DB63}" name="確認内容" headerRowDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{C3993256-81B2-418E-935C-50AD042A05CB}" name="操作手順" headerRowDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{B77CA380-A406-4786-A21E-8B8652DD0F8F}" name="期待値" headerRowDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{18E5C3CA-313A-46EA-AA8D-0D425B9E1FE1}" name="実施日" headerRowDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{69BC504E-F659-4CAE-BDBD-FD3971DA1796}" name="実施結果" headerRowDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{FC7FFEA9-9C5E-4EBD-B5B3-A6683E1884C2}" name="備考" headerRowDxfId="43"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9088,75 +10037,75 @@
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A8B6C67B-F19F-45F0-9044-D117CC2573A0}" name="テーブル281220" displayName="テーブル281220" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{60D3824F-E3FC-4B7C-95E9-89772A150DCA}" name="項目番号" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{57CB82D1-7FE1-4EBB-A31E-5D93135B4C16}" name="大項目" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{D6F62A87-DF1C-4C82-B65C-753311BAB6F9}" name="列3" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{4FAB426E-2733-4C1C-B11B-167182340E03}" name="確認内容" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{8A1056D9-E6DD-4C4F-8C66-13F7C2BC6F09}" name="操作手順" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{8FD79C11-4ADE-4D6E-B397-BE527AA97FF5}" name="期待値" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{48FE1BDE-1D57-4A6F-A1F8-2251639BD1D4}" name="実施日" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{FC5D6BA7-636D-4E6F-BBBB-9C78B2C641D6}" name="実施結果" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{336518F5-BFDC-46DF-911F-041F96988426}" name="備考" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{60D3824F-E3FC-4B7C-95E9-89772A150DCA}" name="項目番号" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{57CB82D1-7FE1-4EBB-A31E-5D93135B4C16}" name="大項目" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D6F62A87-DF1C-4C82-B65C-753311BAB6F9}" name="列3" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{4FAB426E-2733-4C1C-B11B-167182340E03}" name="確認内容" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{8A1056D9-E6DD-4C4F-8C66-13F7C2BC6F09}" name="操作手順" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{8FD79C11-4ADE-4D6E-B397-BE527AA97FF5}" name="期待値" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{48FE1BDE-1D57-4A6F-A1F8-2251639BD1D4}" name="実施日" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{FC5D6BA7-636D-4E6F-BBBB-9C78B2C641D6}" name="実施結果" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{336518F5-BFDC-46DF-911F-041F96988426}" name="備考" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A35:I39" headerRowCount="0" totalsRowShown="0" headerRowDxfId="229">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A35:I41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="228" dataDxfId="227"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="226"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="225"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="224"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="223"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="222"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="221"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="220"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="219"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="237" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="236" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="235" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="234" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="233" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="232" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="231" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="230" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="229" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6C4A35CE-5C20-452B-821C-4B89CE16C0EF}" name="テーブル391321" displayName="テーブル391321" ref="A12:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6C4A35CE-5C20-452B-821C-4B89CE16C0EF}" name="テーブル391321" displayName="テーブル391321" ref="A12:I16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="33">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{048B8763-1FA9-4C48-8453-84284C3B2BE3}" name="項目番号" headerRowDxfId="44" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{59AE58CE-D1CB-4FDF-A5AB-D5CA76F30C49}" name="大項目" headerRowDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{6C6BAA3C-0246-46D6-84DB-26BB4F2340EF}" name="列3" headerRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{2E556FC9-763E-4A55-BD53-58C986393D78}" name="確認内容" headerRowDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{194901A2-ABD9-4B2D-84E7-CA8C68368861}" name="操作手順" headerRowDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{EC06EF13-D880-45B4-A2DC-3B6F4EABAE92}" name="期待値" headerRowDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{47330801-3154-48AB-8617-E5809D5D0387}" name="実施日" headerRowDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{C712C3D3-C34A-4837-AE4C-87E8273AB788}" name="実施結果" headerRowDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{033C9D9C-5AB6-4458-BB96-44DC91CD6CC6}" name="備考" headerRowDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{048B8763-1FA9-4C48-8453-84284C3B2BE3}" name="項目番号" headerRowDxfId="32" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{59AE58CE-D1CB-4FDF-A5AB-D5CA76F30C49}" name="大項目" headerRowDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{6C6BAA3C-0246-46D6-84DB-26BB4F2340EF}" name="列3" headerRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{2E556FC9-763E-4A55-BD53-58C986393D78}" name="確認内容" headerRowDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{194901A2-ABD9-4B2D-84E7-CA8C68368861}" name="操作手順" headerRowDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{EC06EF13-D880-45B4-A2DC-3B6F4EABAE92}" name="期待値" headerRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{47330801-3154-48AB-8617-E5809D5D0387}" name="実施日" headerRowDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{C712C3D3-C34A-4837-AE4C-87E8273AB788}" name="実施結果" headerRowDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{033C9D9C-5AB6-4458-BB96-44DC91CD6CC6}" name="備考" headerRowDxfId="23"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="22">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="21" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="11">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -9173,32 +10122,32 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85F965DE-BFE9-44A1-8203-9C97445D195F}" name="テーブル22" displayName="テーブル22" ref="A7:I21" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="218"/>
-    <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="217"/>
-    <tableColumn id="3" xr3:uid="{C4C821FC-9093-447B-86B8-BB896CE8F6DB}" name="列3" dataDxfId="216"/>
-    <tableColumn id="4" xr3:uid="{D8AC028C-A000-4B31-A70E-88EC32F4D447}" name="確認内容" dataDxfId="215"/>
-    <tableColumn id="5" xr3:uid="{1FF0C9C1-F0B2-4FD8-A9CF-CFDD64854E64}" name="操作手順" dataDxfId="214"/>
-    <tableColumn id="6" xr3:uid="{81648DCB-DB01-4FD5-9CFA-D77908665B9D}" name="期待値" dataDxfId="213"/>
-    <tableColumn id="7" xr3:uid="{10F904F3-2194-4F9F-A698-2181ECC170AD}" name="実施日" dataDxfId="212"/>
-    <tableColumn id="8" xr3:uid="{7EFBFD49-13DA-4D47-A1FA-7E8A935D999D}" name="実施結果" dataDxfId="211"/>
-    <tableColumn id="9" xr3:uid="{80D23A8A-0805-43E8-8AAE-F8081DCA6D65}" name="備考" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="228"/>
+    <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="227"/>
+    <tableColumn id="3" xr3:uid="{C4C821FC-9093-447B-86B8-BB896CE8F6DB}" name="列3" dataDxfId="226"/>
+    <tableColumn id="4" xr3:uid="{D8AC028C-A000-4B31-A70E-88EC32F4D447}" name="確認内容" dataDxfId="225"/>
+    <tableColumn id="5" xr3:uid="{1FF0C9C1-F0B2-4FD8-A9CF-CFDD64854E64}" name="操作手順" dataDxfId="224"/>
+    <tableColumn id="6" xr3:uid="{81648DCB-DB01-4FD5-9CFA-D77908665B9D}" name="期待値" dataDxfId="223"/>
+    <tableColumn id="7" xr3:uid="{10F904F3-2194-4F9F-A698-2181ECC170AD}" name="実施日" dataDxfId="222"/>
+    <tableColumn id="8" xr3:uid="{7EFBFD49-13DA-4D47-A1FA-7E8A935D999D}" name="実施結果" dataDxfId="221"/>
+    <tableColumn id="9" xr3:uid="{80D23A8A-0805-43E8-8AAE-F8081DCA6D65}" name="備考" dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A22:I26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A22:I26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="219">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="208" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{2FF70B6E-A1B8-4571-9F44-DA2874BA52C0}" name="列3" headerRowDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{2AF3E51B-1DEA-465B-AFB0-BC6CB20E4F44}" name="確認内容" headerRowDxfId="204"/>
-    <tableColumn id="5" xr3:uid="{CE779E91-8182-4A55-964C-59E625B68FEE}" name="操作手順" headerRowDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{19FE0ED1-C435-4CF2-B709-38DDBFFA50B3}" name="期待値" headerRowDxfId="202"/>
-    <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="201"/>
-    <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="200"/>
-    <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="218" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{2FF70B6E-A1B8-4571-9F44-DA2874BA52C0}" name="列3" headerRowDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{2AF3E51B-1DEA-465B-AFB0-BC6CB20E4F44}" name="確認内容" headerRowDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{CE779E91-8182-4A55-964C-59E625B68FEE}" name="操作手順" headerRowDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{19FE0ED1-C435-4CF2-B709-38DDBFFA50B3}" name="期待値" headerRowDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="211"/>
+    <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="210"/>
+    <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="209"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9207,32 +10156,32 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6434A889-CDC7-4338-A988-2373A1FF57F5}" name="テーブル28" displayName="テーブル28" ref="A7:I16" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1C5AFB2B-0760-43A5-AA4A-E62CA06794FB}" name="項目番号" dataDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{4BC046F4-64B9-4A07-9960-53465730E599}" name="大項目" dataDxfId="197"/>
-    <tableColumn id="3" xr3:uid="{EF879FB3-BF6D-4B7C-A11D-BAB918435A1F}" name="列3" dataDxfId="196"/>
-    <tableColumn id="4" xr3:uid="{D50ED521-FD6C-4600-877E-8DD9170680E6}" name="確認内容" dataDxfId="195"/>
-    <tableColumn id="5" xr3:uid="{B5A024DA-F644-4FF9-B624-8D50FF77E656}" name="操作手順" dataDxfId="194"/>
-    <tableColumn id="6" xr3:uid="{2A99B0CE-D544-4378-BC92-5B3350E1ABE5}" name="期待値" dataDxfId="193"/>
-    <tableColumn id="7" xr3:uid="{892CD07D-5641-4B7E-B782-C023D4FE91C4}" name="実施日" dataDxfId="192"/>
-    <tableColumn id="8" xr3:uid="{19219D21-4CC4-452A-944E-AA518EDA3B54}" name="実施結果" dataDxfId="191"/>
-    <tableColumn id="9" xr3:uid="{37BA8BFF-2DDE-4309-A6C1-D04E3D53089A}" name="備考" dataDxfId="190"/>
+    <tableColumn id="1" xr3:uid="{1C5AFB2B-0760-43A5-AA4A-E62CA06794FB}" name="項目番号" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{4BC046F4-64B9-4A07-9960-53465730E599}" name="大項目" dataDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{EF879FB3-BF6D-4B7C-A11D-BAB918435A1F}" name="列3" dataDxfId="206"/>
+    <tableColumn id="4" xr3:uid="{D50ED521-FD6C-4600-877E-8DD9170680E6}" name="確認内容" dataDxfId="205"/>
+    <tableColumn id="5" xr3:uid="{B5A024DA-F644-4FF9-B624-8D50FF77E656}" name="操作手順" dataDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{2A99B0CE-D544-4378-BC92-5B3350E1ABE5}" name="期待値" dataDxfId="203"/>
+    <tableColumn id="7" xr3:uid="{892CD07D-5641-4B7E-B782-C023D4FE91C4}" name="実施日" dataDxfId="202"/>
+    <tableColumn id="8" xr3:uid="{19219D21-4CC4-452A-944E-AA518EDA3B54}" name="実施結果" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{37BA8BFF-2DDE-4309-A6C1-D04E3D53089A}" name="備考" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B13E4BC5-AB2A-433D-A21F-84E412620802}" name="テーブル39" displayName="テーブル39" ref="A17:I22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B13E4BC5-AB2A-433D-A21F-84E412620802}" name="テーブル39" displayName="テーブル39" ref="A17:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="199" tableBorderDxfId="198" totalsRowBorderDxfId="197">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AAB68CDF-4A89-4CBB-8E8E-6214B36452CD}" name="項目番号" headerRowDxfId="189" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A90DE0AD-460C-4541-8C98-CCC8D998FD93}" name="大項目" headerRowDxfId="188" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{187370F2-5CDC-4814-AD3A-19846FC1E5B8}" name="列3" headerRowDxfId="187" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B190AF12-FFBB-4BAE-A51D-1CAA5B8ACE7C}" name="確認内容" headerRowDxfId="186" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{66E3E23C-09F6-4AAD-8DB9-13FA9E083F84}" name="操作手順" headerRowDxfId="185" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{68EEC8FA-7FB4-416B-84E0-6285EFD8F5C2}" name="期待値" headerRowDxfId="184" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{AEF51E41-14B1-4B06-BEE0-F53BF8A240E4}" name="実施日" headerRowDxfId="183" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8E551473-9E5D-4700-9B4A-5373C9B154F9}" name="実施結果" headerRowDxfId="182" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{935E00D1-93D4-452C-B5C1-B89C2A41C95B}" name="備考" headerRowDxfId="181" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AAB68CDF-4A89-4CBB-8E8E-6214B36452CD}" name="項目番号" headerRowDxfId="196" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{A90DE0AD-460C-4541-8C98-CCC8D998FD93}" name="大項目" headerRowDxfId="194" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{187370F2-5CDC-4814-AD3A-19846FC1E5B8}" name="列3" headerRowDxfId="192" dataDxfId="191"/>
+    <tableColumn id="4" xr3:uid="{B190AF12-FFBB-4BAE-A51D-1CAA5B8ACE7C}" name="確認内容" headerRowDxfId="190" dataDxfId="189"/>
+    <tableColumn id="5" xr3:uid="{66E3E23C-09F6-4AAD-8DB9-13FA9E083F84}" name="操作手順" headerRowDxfId="188" dataDxfId="187"/>
+    <tableColumn id="6" xr3:uid="{68EEC8FA-7FB4-416B-84E0-6285EFD8F5C2}" name="期待値" headerRowDxfId="186" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{AEF51E41-14B1-4B06-BEE0-F53BF8A240E4}" name="実施日" headerRowDxfId="184" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{8E551473-9E5D-4700-9B4A-5373C9B154F9}" name="実施結果" headerRowDxfId="182" dataDxfId="181"/>
+    <tableColumn id="9" xr3:uid="{935E00D1-93D4-452C-B5C1-B89C2A41C95B}" name="備考" headerRowDxfId="180" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9241,32 +10190,32 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BCD28B93-BD18-40FE-9EAF-79078CA97AC3}" name="テーブル210" displayName="テーブル210" ref="A7:I43" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{24CDBC1C-7B11-4828-8A6C-F49049F89F00}" name="項目番号" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{B34DDAD1-A174-4C30-A755-CB07F4F8DDC3}" name="大項目" dataDxfId="179"/>
-    <tableColumn id="3" xr3:uid="{D85219DC-5119-4103-80CA-73B62A1ADC79}" name="列3" dataDxfId="178"/>
-    <tableColumn id="4" xr3:uid="{7F7602CF-8207-459F-BDD9-3EB9A528188A}" name="確認内容" dataDxfId="177"/>
-    <tableColumn id="5" xr3:uid="{03D2BBB9-EA53-42D7-82FD-606F530BDF6D}" name="操作手順" dataDxfId="176"/>
-    <tableColumn id="6" xr3:uid="{83F451BF-479C-4EBE-81DD-BAE9FFDAB661}" name="期待値" dataDxfId="175"/>
-    <tableColumn id="7" xr3:uid="{87046590-9F73-461E-8631-BD71C0EC994B}" name="実施日" dataDxfId="174"/>
-    <tableColumn id="8" xr3:uid="{094B48BF-1E5A-4845-A02A-322C66BBBEC1}" name="実施結果" dataDxfId="173"/>
-    <tableColumn id="9" xr3:uid="{DDF39B8D-EB48-4FDA-840B-642F03A977FB}" name="備考" dataDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{24CDBC1C-7B11-4828-8A6C-F49049F89F00}" name="項目番号" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{B34DDAD1-A174-4C30-A755-CB07F4F8DDC3}" name="大項目" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{D85219DC-5119-4103-80CA-73B62A1ADC79}" name="列3" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{7F7602CF-8207-459F-BDD9-3EB9A528188A}" name="確認内容" dataDxfId="175"/>
+    <tableColumn id="5" xr3:uid="{03D2BBB9-EA53-42D7-82FD-606F530BDF6D}" name="操作手順" dataDxfId="174"/>
+    <tableColumn id="6" xr3:uid="{83F451BF-479C-4EBE-81DD-BAE9FFDAB661}" name="期待値" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{87046590-9F73-461E-8631-BD71C0EC994B}" name="実施日" dataDxfId="172"/>
+    <tableColumn id="8" xr3:uid="{094B48BF-1E5A-4845-A02A-322C66BBBEC1}" name="実施結果" dataDxfId="171"/>
+    <tableColumn id="9" xr3:uid="{DDF39B8D-EB48-4FDA-840B-642F03A977FB}" name="備考" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81091360-8C2A-4D17-858F-88DB26B13B67}" name="テーブル311" displayName="テーブル311" ref="A44:I48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{81091360-8C2A-4D17-858F-88DB26B13B67}" name="テーブル311" displayName="テーブル311" ref="A44:I48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="169">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B0F26ADC-DA32-48BD-9910-7AE5D6BF88D4}" name="項目番号" headerRowDxfId="170" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{9BE255DB-5913-47C6-972A-EDDA92DE4319}" name="大項目" headerRowDxfId="168"/>
-    <tableColumn id="3" xr3:uid="{0D0121E7-656A-481D-AC74-4AE410724CD7}" name="列3" headerRowDxfId="167"/>
-    <tableColumn id="4" xr3:uid="{A664A130-676B-48BD-8829-FB93D5808DC4}" name="確認内容" headerRowDxfId="166"/>
-    <tableColumn id="5" xr3:uid="{DBB9659B-3BCC-49A6-9BF8-5FC716FD0BFB}" name="操作手順" headerRowDxfId="165"/>
-    <tableColumn id="6" xr3:uid="{A2E8AC67-F563-441E-A75C-54C16B05B664}" name="期待値" headerRowDxfId="164"/>
-    <tableColumn id="7" xr3:uid="{FFEA1C31-6656-4F09-836B-3724F04D745B}" name="実施日" headerRowDxfId="163"/>
-    <tableColumn id="8" xr3:uid="{EBCC2C0B-E577-4203-8457-462534C53556}" name="実施結果" headerRowDxfId="162"/>
-    <tableColumn id="9" xr3:uid="{C4CA7A9B-9FBA-4EF3-8DDB-C63AD50C5211}" name="備考" headerRowDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{B0F26ADC-DA32-48BD-9910-7AE5D6BF88D4}" name="項目番号" headerRowDxfId="168" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{9BE255DB-5913-47C6-972A-EDDA92DE4319}" name="大項目" headerRowDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{0D0121E7-656A-481D-AC74-4AE410724CD7}" name="列3" headerRowDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{A664A130-676B-48BD-8829-FB93D5808DC4}" name="確認内容" headerRowDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{DBB9659B-3BCC-49A6-9BF8-5FC716FD0BFB}" name="操作手順" headerRowDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{A2E8AC67-F563-441E-A75C-54C16B05B664}" name="期待値" headerRowDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{FFEA1C31-6656-4F09-836B-3724F04D745B}" name="実施日" headerRowDxfId="161"/>
+    <tableColumn id="8" xr3:uid="{EBCC2C0B-E577-4203-8457-462534C53556}" name="実施結果" headerRowDxfId="160"/>
+    <tableColumn id="9" xr3:uid="{C4CA7A9B-9FBA-4EF3-8DDB-C63AD50C5211}" name="備考" headerRowDxfId="159"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9275,15 +10224,15 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9B75BF2-C8DA-4058-AA78-26607E2B007D}" name="テーブル2812" displayName="テーブル2812" ref="A7:I11" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{57144C7C-F54C-4A5B-9642-7142CA235963}" name="項目番号" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{D62C9593-BA1E-4CAF-B75A-B4CA22EF8EE3}" name="大項目" dataDxfId="159"/>
-    <tableColumn id="3" xr3:uid="{F02BCF85-9CC7-4AE1-935F-459136CCD965}" name="列3" dataDxfId="158"/>
-    <tableColumn id="4" xr3:uid="{D6C449BB-0196-4CD6-B67D-7EAA014779AB}" name="確認内容" dataDxfId="157"/>
-    <tableColumn id="5" xr3:uid="{8A9CE791-1F13-46FA-9AE0-9C95695796DE}" name="操作手順" dataDxfId="156"/>
-    <tableColumn id="6" xr3:uid="{31F84205-75F9-440F-A157-9FBDF605D694}" name="期待値" dataDxfId="155"/>
-    <tableColumn id="7" xr3:uid="{C47C7C94-57F8-4128-A4DB-178CA39D6D8F}" name="実施日" dataDxfId="154"/>
-    <tableColumn id="8" xr3:uid="{D628D4FC-CE73-41B3-9F81-2AC4C9E211FC}" name="実施結果" dataDxfId="153"/>
-    <tableColumn id="9" xr3:uid="{061CAF32-C932-484C-92C2-E439B92B6A83}" name="備考" dataDxfId="152"/>
+    <tableColumn id="1" xr3:uid="{57144C7C-F54C-4A5B-9642-7142CA235963}" name="項目番号" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{D62C9593-BA1E-4CAF-B75A-B4CA22EF8EE3}" name="大項目" dataDxfId="157"/>
+    <tableColumn id="3" xr3:uid="{F02BCF85-9CC7-4AE1-935F-459136CCD965}" name="列3" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{D6C449BB-0196-4CD6-B67D-7EAA014779AB}" name="確認内容" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{8A9CE791-1F13-46FA-9AE0-9C95695796DE}" name="操作手順" dataDxfId="154"/>
+    <tableColumn id="6" xr3:uid="{31F84205-75F9-440F-A157-9FBDF605D694}" name="期待値" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{C47C7C94-57F8-4128-A4DB-178CA39D6D8F}" name="実施日" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{D628D4FC-CE73-41B3-9F81-2AC4C9E211FC}" name="実施結果" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{061CAF32-C932-484C-92C2-E439B92B6A83}" name="備考" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9606,10 +10555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C14" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9626,7 +10575,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -9637,7 +10586,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -9646,7 +10595,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -9655,7 +10604,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -9755,7 +10704,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>237</v>
@@ -9851,19 +10800,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>255</v>
+        <v>363</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="G17" s="3">
         <v>45842</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -9873,7 +10822,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -9900,13 +10849,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G20" s="3">
         <v>45842</v>
@@ -9947,10 +10896,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>241</v>
@@ -9994,7 +10943,7 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>96</v>
@@ -10043,7 +10992,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>96</v>
@@ -10092,7 +11041,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>96</v>
@@ -10131,6 +11080,191 @@
       <c r="G34" s="4"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="16"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="16"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10167,7 +11301,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -10178,7 +11312,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -10187,7 +11321,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -10196,7 +11330,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -10337,7 +11471,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -10348,7 +11482,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -10357,7 +11491,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -10366,7 +11500,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -11240,7 +12374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -11251,7 +12385,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -11260,7 +12394,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -11269,7 +12403,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -11819,10 +12953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11839,7 +12973,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -11850,7 +12984,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -11859,7 +12993,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -11868,7 +13002,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -11922,10 +13056,10 @@
         <v>254</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="G8" s="3">
         <v>45842</v>
@@ -11941,7 +13075,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -11968,13 +13102,13 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G11" s="3">
         <v>45842</v>
@@ -11990,7 +13124,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -12003,7 +13137,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -12011,7 +13145,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -12030,13 +13164,13 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G15" s="3">
         <v>45842</v>
@@ -12045,7 +13179,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12067,7 +13201,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -12080,7 +13214,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -12088,7 +13222,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -12107,13 +13241,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G20" s="3">
         <v>45842</v>
@@ -12143,13 +13277,13 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G22" s="3">
         <v>45842</v>
@@ -12179,13 +13313,13 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G24" s="3">
         <v>45842</v>
@@ -12194,6 +13328,215 @@
         <v>73</v>
       </c>
       <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12210,10 +13553,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED2CC-32C6-4049-B976-1FB025BBAE22}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12230,7 +13573,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -12241,7 +13584,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -12250,7 +13593,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -12259,7 +13602,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -12310,13 +13653,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G8" s="3">
         <v>45842</v>
@@ -12338,19 +13681,21 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G10" s="3">
         <v>45842</v>
@@ -12361,7 +13706,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="G11" s="2"/>
@@ -12369,19 +13714,21 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G12" s="3">
         <v>45842</v>
@@ -12392,7 +13739,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -12417,16 +13764,18 @@
       <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G15" s="3">
         <v>45842</v>
@@ -12437,12 +13786,12 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -12450,20 +13799,20 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -12471,22 +13820,24 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>5</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G19" s="3">
         <v>45842</v>
@@ -12494,48 +13845,263 @@
       <c r="H19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>303</v>
+      <c r="I19" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="15"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="17"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="17"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="17">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12552,10 +14118,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9DF4C-BD12-4AC6-9AAC-936DFC9AAD8B}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12572,7 +14138,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -12583,7 +14149,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -12592,7 +14158,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -12601,7 +14167,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -12706,10 +14272,10 @@
         <v>243</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G11" s="3">
         <v>45842</v>
@@ -12753,10 +14319,10 @@
         <v>244</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G14" s="3">
         <v>45842</v>
@@ -12800,10 +14366,10 @@
         <v>245</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G17" s="3">
         <v>45842</v>
@@ -12847,7 +14413,7 @@
         <v>246</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>241</v>
@@ -12894,7 +14460,7 @@
         <v>247</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>242</v>
@@ -12941,10 +14507,10 @@
         <v>248</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G26" s="3">
         <v>45842</v>
@@ -12988,10 +14554,10 @@
         <v>249</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G29" s="3">
         <v>45842</v>
@@ -13035,10 +14601,10 @@
         <v>250</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G32" s="3">
         <v>45842</v>
@@ -13082,10 +14648,10 @@
         <v>251</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G35" s="3">
         <v>45842</v>
@@ -13129,10 +14695,10 @@
         <v>252</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G38" s="3">
         <v>45842</v>
@@ -13176,10 +14742,10 @@
         <v>253</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G41" s="3">
         <v>45842</v>
@@ -13220,13 +14786,13 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G44" s="3">
         <v>45842</v>
@@ -13235,6 +14801,149 @@
         <v>73</v>
       </c>
       <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2">
+        <v>16</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G53" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13253,8 +14962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793BB9D-553F-4530-A4BF-72E616C75186}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13271,7 +14980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -13282,7 +14991,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -13291,7 +15000,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -13300,7 +15009,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -13310,7 +15019,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13351,19 +15060,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="G8" s="3">
         <v>45842</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -13373,7 +15082,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -13400,10 +15109,10 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>241</v>
@@ -13447,10 +15156,10 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>242</v>
@@ -13494,13 +15203,13 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G17" s="3">
         <v>45842</v>
@@ -13541,13 +15250,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G20" s="3">
         <v>45842</v>
@@ -13588,13 +15297,13 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G23" s="3">
         <v>45842</v>
@@ -13635,13 +15344,13 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G26" s="3">
         <v>45842</v>
@@ -13682,13 +15391,13 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G29" s="3">
         <v>45842</v>
@@ -13729,13 +15438,13 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G32" s="3">
         <v>45842</v>
@@ -13776,13 +15485,13 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G35" s="3">
         <v>45842</v>
@@ -13798,7 +15507,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -13840,7 +15549,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -13851,7 +15560,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -13860,7 +15569,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -13869,7 +15578,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -14623,7 +16332,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -14634,7 +16343,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -14643,7 +16352,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -14652,7 +16361,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -15951,7 +17660,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -15962,7 +17671,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -15971,7 +17680,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -15980,7 +17689,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -16649,7 +18358,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -16660,7 +18369,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -16669,7 +18378,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -16678,7 +18387,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>

--- a/総合テスト.xlsx
+++ b/総合テスト.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test-case/test-case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A164162E-4641-4656-A9BB-EE46F68EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FF3805E-5C44-4414-8B84-F627B97BC8ED}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A164162E-4641-4656-A9BB-EE46F68EAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19EBDE1D-40FA-440D-BE54-8C9C7521942A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録" sheetId="1" r:id="rId1"/>
-    <sheet name="アカウント削除" sheetId="5" r:id="rId2"/>
-    <sheet name="アカウント更新" sheetId="6" r:id="rId3"/>
+    <sheet name="アカウント更新" sheetId="6" r:id="rId2"/>
+    <sheet name="アカウント削除" sheetId="5" r:id="rId3"/>
     <sheet name="ログイン" sheetId="7" r:id="rId4"/>
     <sheet name="アカウント検索" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="9" state="hidden" r:id="rId6"/>
@@ -10120,6 +10120,40 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6434A889-CDC7-4338-A988-2373A1FF57F5}" name="テーブル28" displayName="テーブル28" ref="A7:I16" totalsRowShown="0">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1C5AFB2B-0760-43A5-AA4A-E62CA06794FB}" name="項目番号" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{4BC046F4-64B9-4A07-9960-53465730E599}" name="大項目" dataDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{EF879FB3-BF6D-4B7C-A11D-BAB918435A1F}" name="列3" dataDxfId="206"/>
+    <tableColumn id="4" xr3:uid="{D50ED521-FD6C-4600-877E-8DD9170680E6}" name="確認内容" dataDxfId="205"/>
+    <tableColumn id="5" xr3:uid="{B5A024DA-F644-4FF9-B624-8D50FF77E656}" name="操作手順" dataDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{2A99B0CE-D544-4378-BC92-5B3350E1ABE5}" name="期待値" dataDxfId="203"/>
+    <tableColumn id="7" xr3:uid="{892CD07D-5641-4B7E-B782-C023D4FE91C4}" name="実施日" dataDxfId="202"/>
+    <tableColumn id="8" xr3:uid="{19219D21-4CC4-452A-944E-AA518EDA3B54}" name="実施結果" dataDxfId="201"/>
+    <tableColumn id="9" xr3:uid="{37BA8BFF-2DDE-4309-A6C1-D04E3D53089A}" name="備考" dataDxfId="200"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B13E4BC5-AB2A-433D-A21F-84E412620802}" name="テーブル39" displayName="テーブル39" ref="A17:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="199" tableBorderDxfId="198" totalsRowBorderDxfId="197">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{AAB68CDF-4A89-4CBB-8E8E-6214B36452CD}" name="項目番号" headerRowDxfId="196" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{A90DE0AD-460C-4541-8C98-CCC8D998FD93}" name="大項目" headerRowDxfId="194" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{187370F2-5CDC-4814-AD3A-19846FC1E5B8}" name="列3" headerRowDxfId="192" dataDxfId="191"/>
+    <tableColumn id="4" xr3:uid="{B190AF12-FFBB-4BAE-A51D-1CAA5B8ACE7C}" name="確認内容" headerRowDxfId="190" dataDxfId="189"/>
+    <tableColumn id="5" xr3:uid="{66E3E23C-09F6-4AAD-8DB9-13FA9E083F84}" name="操作手順" headerRowDxfId="188" dataDxfId="187"/>
+    <tableColumn id="6" xr3:uid="{68EEC8FA-7FB4-416B-84E0-6285EFD8F5C2}" name="期待値" headerRowDxfId="186" dataDxfId="185"/>
+    <tableColumn id="7" xr3:uid="{AEF51E41-14B1-4B06-BEE0-F53BF8A240E4}" name="実施日" headerRowDxfId="184" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{8E551473-9E5D-4700-9B4A-5373C9B154F9}" name="実施結果" headerRowDxfId="182" dataDxfId="181"/>
+    <tableColumn id="9" xr3:uid="{935E00D1-93D4-452C-B5C1-B89C2A41C95B}" name="備考" headerRowDxfId="180" dataDxfId="179"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85F965DE-BFE9-44A1-8203-9C97445D195F}" name="テーブル22" displayName="テーブル22" ref="A7:I21" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="228"/>
@@ -10136,7 +10170,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A22:I26" headerRowCount="0" totalsRowShown="0" headerRowDxfId="219">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="218" dataDxfId="217"/>
@@ -10148,40 +10182,6 @@
     <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="211"/>
     <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="210"/>
     <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="209"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6434A889-CDC7-4338-A988-2373A1FF57F5}" name="テーブル28" displayName="テーブル28" ref="A7:I16" totalsRowShown="0">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1C5AFB2B-0760-43A5-AA4A-E62CA06794FB}" name="項目番号" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{4BC046F4-64B9-4A07-9960-53465730E599}" name="大項目" dataDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{EF879FB3-BF6D-4B7C-A11D-BAB918435A1F}" name="列3" dataDxfId="206"/>
-    <tableColumn id="4" xr3:uid="{D50ED521-FD6C-4600-877E-8DD9170680E6}" name="確認内容" dataDxfId="205"/>
-    <tableColumn id="5" xr3:uid="{B5A024DA-F644-4FF9-B624-8D50FF77E656}" name="操作手順" dataDxfId="204"/>
-    <tableColumn id="6" xr3:uid="{2A99B0CE-D544-4378-BC92-5B3350E1ABE5}" name="期待値" dataDxfId="203"/>
-    <tableColumn id="7" xr3:uid="{892CD07D-5641-4B7E-B782-C023D4FE91C4}" name="実施日" dataDxfId="202"/>
-    <tableColumn id="8" xr3:uid="{19219D21-4CC4-452A-944E-AA518EDA3B54}" name="実施結果" dataDxfId="201"/>
-    <tableColumn id="9" xr3:uid="{37BA8BFF-2DDE-4309-A6C1-D04E3D53089A}" name="備考" dataDxfId="200"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B13E4BC5-AB2A-433D-A21F-84E412620802}" name="テーブル39" displayName="テーブル39" ref="A17:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="199" tableBorderDxfId="198" totalsRowBorderDxfId="197">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AAB68CDF-4A89-4CBB-8E8E-6214B36452CD}" name="項目番号" headerRowDxfId="196" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{A90DE0AD-460C-4541-8C98-CCC8D998FD93}" name="大項目" headerRowDxfId="194" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{187370F2-5CDC-4814-AD3A-19846FC1E5B8}" name="列3" headerRowDxfId="192" dataDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{B190AF12-FFBB-4BAE-A51D-1CAA5B8ACE7C}" name="確認内容" headerRowDxfId="190" dataDxfId="189"/>
-    <tableColumn id="5" xr3:uid="{66E3E23C-09F6-4AAD-8DB9-13FA9E083F84}" name="操作手順" headerRowDxfId="188" dataDxfId="187"/>
-    <tableColumn id="6" xr3:uid="{68EEC8FA-7FB4-416B-84E0-6285EFD8F5C2}" name="期待値" headerRowDxfId="186" dataDxfId="185"/>
-    <tableColumn id="7" xr3:uid="{AEF51E41-14B1-4B06-BEE0-F53BF8A240E4}" name="実施日" headerRowDxfId="184" dataDxfId="183"/>
-    <tableColumn id="8" xr3:uid="{8E551473-9E5D-4700-9B4A-5373C9B154F9}" name="実施結果" headerRowDxfId="182" dataDxfId="181"/>
-    <tableColumn id="9" xr3:uid="{935E00D1-93D4-452C-B5C1-B89C2A41C95B}" name="備考" headerRowDxfId="180" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10557,7 +10557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="C9" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -12952,11 +12952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED2CC-32C6-4049-B976-1FB025BBAE22}">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12980,7 +12980,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13007,12 +13007,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45842</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13053,13 +13053,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="G8" s="3">
         <v>45842</v>
@@ -13074,61 +13074,68 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>266</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="3">
         <v>45842</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13136,9 +13143,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" t="s">
-        <v>329</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -13157,20 +13162,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G15" s="3">
         <v>45842</v>
@@ -13178,9 +13183,7 @@
       <c r="H15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>327</v>
-      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
@@ -13188,7 +13191,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -13196,138 +13199,132 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>331</v>
-      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="11">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G20" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="2"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>5</v>
+      <c r="A24" s="17">
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>302</v>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>368</v>
       </c>
       <c r="G24" s="3">
         <v>45842</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
@@ -13342,17 +13339,17 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>371</v>
@@ -13370,48 +13367,48 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29" s="3">
         <v>45842</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13419,35 +13416,25 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>389</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G31" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13455,88 +13442,66 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>390</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>392</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="G35" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13552,11 +13517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7ED2CC-32C6-4049-B976-1FB025BBAE22}">
-  <dimension ref="A1:I35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="D3" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13580,7 +13545,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13607,12 +13572,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45842</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13653,13 +13618,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="G8" s="3">
         <v>45842</v>
@@ -13674,68 +13639,61 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="3">
         <v>45842</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>334</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13743,7 +13701,9 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" t="s">
+        <v>329</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -13762,20 +13722,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G15" s="3">
         <v>45842</v>
@@ -13783,7 +13743,9 @@
       <c r="H15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
@@ -13791,7 +13753,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -13799,132 +13761,138 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="10"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="11"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="11">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" s="3">
         <v>45842</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="11"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="14"/>
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="17"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="14"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="17">
-        <v>6</v>
+      <c r="A24" s="2">
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>368</v>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="G24" s="3">
         <v>45842</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>395</v>
-      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
@@ -13939,17 +13907,17 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>371</v>
@@ -13967,48 +13935,48 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>373</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>375</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14016,25 +13984,35 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>377</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14042,66 +14020,88 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <v>9</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>379</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45842</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>380</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>382</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45842</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14120,7 +14120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E9DF4C-BD12-4AC6-9AAC-936DFC9AAD8B}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="D6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -14962,7 +14962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793BB9D-553F-4530-A4BF-72E616C75186}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
